--- a/Files/INFORMATIVO 18° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 18° GRE - MODELO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\RUN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarde\OneDrive\Documentos\RELATÓRIOS\Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="41">
   <si>
     <t>PLACA</t>
   </si>
@@ -45,9 +45,6 @@
     <t>~</t>
   </si>
   <si>
-    <t>MAIO</t>
-  </si>
-  <si>
     <t>MANHÃ</t>
   </si>
   <si>
@@ -139,13 +136,19 @@
   </si>
   <si>
     <t>NGC-8853</t>
+  </si>
+  <si>
+    <t>PJP-4986</t>
+  </si>
+  <si>
+    <t>JUNHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,13 +161,25 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -194,13 +209,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,16 +557,16 @@
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -559,16 +577,16 @@
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,16 +597,16 @@
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -599,1339 +617,1380 @@
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E36" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E46" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>31</v>
+      <c r="A52" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>9</v>
+        <v>40</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Files/INFORMATIVO 18° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 18° GRE - MODELO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="43">
   <si>
     <t>PLACA</t>
   </si>
@@ -142,6 +142,12 @@
   </si>
   <si>
     <t>JUNHO</t>
+  </si>
+  <si>
+    <t>NMR-9010</t>
+  </si>
+  <si>
+    <t>NMR-8H77</t>
   </si>
 </sst>
 </file>
@@ -160,6 +166,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -521,13 +528,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -631,7 +641,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -651,7 +661,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
@@ -671,7 +681,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
@@ -691,7 +701,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
@@ -711,7 +721,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
@@ -731,7 +741,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -751,7 +761,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
@@ -771,7 +781,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
@@ -800,7 +810,7 @@
         <v>40</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>9</v>
@@ -820,7 +830,7 @@
         <v>40</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>11</v>
@@ -831,7 +841,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
@@ -840,18 +850,18 @@
         <v>40</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
@@ -860,18 +870,18 @@
         <v>40</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
@@ -880,18 +890,18 @@
         <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
@@ -900,18 +910,18 @@
         <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
@@ -920,7 +930,7 @@
         <v>40</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>11</v>
@@ -931,7 +941,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
@@ -940,7 +950,7 @@
         <v>40</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>9</v>
@@ -951,7 +961,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
@@ -960,18 +970,18 @@
         <v>40</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
@@ -980,18 +990,18 @@
         <v>40</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
@@ -1003,15 +1013,15 @@
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
@@ -1023,95 +1033,95 @@
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>21</v>
+      <c r="A26" t="s">
+        <v>41</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>20</v>
+      <c r="C26" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>21</v>
+      <c r="A27" t="s">
+        <v>41</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>20</v>
+      <c r="C27" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>21</v>
+      <c r="A28" t="s">
+        <v>41</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>20</v>
+      <c r="C28" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>21</v>
+      <c r="A29" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>20</v>
+      <c r="C29" t="s">
+        <v>40</v>
+      </c>
+      <c r="D29" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
@@ -1123,15 +1133,15 @@
         <v>8</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
@@ -1143,15 +1153,15 @@
         <v>8</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -1163,15 +1173,15 @@
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
@@ -1183,15 +1193,15 @@
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
@@ -1200,18 +1210,18 @@
         <v>40</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
@@ -1220,18 +1230,18 @@
         <v>40</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
@@ -1240,18 +1250,18 @@
         <v>40</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
@@ -1260,18 +1270,18 @@
         <v>40</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
@@ -1280,7 +1290,7 @@
         <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
@@ -1291,7 +1301,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
@@ -1300,7 +1310,7 @@
         <v>40</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
@@ -1311,7 +1321,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
@@ -1320,10 +1330,10 @@
         <v>40</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>23</v>
@@ -1331,7 +1341,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
@@ -1340,10 +1350,10 @@
         <v>40</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>23</v>
@@ -1351,7 +1361,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
@@ -1360,7 +1370,7 @@
         <v>40</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>11</v>
@@ -1371,7 +1381,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
@@ -1380,7 +1390,7 @@
         <v>40</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>9</v>
@@ -1391,7 +1401,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
@@ -1400,7 +1410,7 @@
         <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>11</v>
@@ -1411,7 +1421,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
@@ -1420,7 +1430,7 @@
         <v>40</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>9</v>
@@ -1431,7 +1441,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
@@ -1440,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>11</v>
@@ -1451,7 +1461,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
@@ -1460,7 +1470,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>9</v>
@@ -1471,7 +1481,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
@@ -1491,7 +1501,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
@@ -1511,7 +1521,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
@@ -1519,19 +1529,19 @@
       <c r="C50" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D50" s="3" t="s">
-        <v>12</v>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
@@ -1539,19 +1549,19 @@
       <c r="C51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D51" s="3" t="s">
-        <v>12</v>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>39</v>
+      <c r="A52" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
@@ -1559,19 +1569,19 @@
       <c r="C52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>12</v>
+      <c r="D52" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
@@ -1579,19 +1589,19 @@
       <c r="C53" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D53" s="3" t="s">
-        <v>12</v>
+      <c r="D53" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
@@ -1599,19 +1609,19 @@
       <c r="C54" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D54" s="3" t="s">
-        <v>12</v>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -1620,18 +1630,18 @@
         <v>40</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
@@ -1640,18 +1650,18 @@
         <v>40</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
@@ -1660,18 +1670,18 @@
         <v>40</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
@@ -1683,15 +1693,15 @@
         <v>12</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
@@ -1699,19 +1709,19 @@
       <c r="C59" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>31</v>
+      <c r="A60" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
@@ -1719,19 +1729,19 @@
       <c r="C60" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D60" s="2" t="s">
-        <v>15</v>
+      <c r="D60" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
@@ -1739,19 +1749,19 @@
       <c r="C61" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D61" s="2" t="s">
-        <v>15</v>
+      <c r="D61" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
@@ -1759,19 +1769,19 @@
       <c r="C62" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
@@ -1783,15 +1793,15 @@
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
@@ -1800,10 +1810,10 @@
         <v>40</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>32</v>
@@ -1811,7 +1821,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
@@ -1820,10 +1830,10 @@
         <v>40</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>32</v>
@@ -1831,7 +1841,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
@@ -1839,11 +1849,11 @@
       <c r="C66" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>32</v>
@@ -1851,7 +1861,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
@@ -1863,7 +1873,7 @@
         <v>12</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>32</v>
@@ -1871,7 +1881,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
@@ -1880,18 +1890,18 @@
         <v>40</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
@@ -1900,18 +1910,18 @@
         <v>40</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
@@ -1926,12 +1936,12 @@
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
@@ -1946,12 +1956,12 @@
         <v>9</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
@@ -1960,32 +1970,192 @@
         <v>40</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="B80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>36</v>
       </c>
     </row>

--- a/Files/INFORMATIVO 18° GRE - MODELO.xlsx
+++ b/Files/INFORMATIVO 18° GRE - MODELO.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="49">
   <si>
     <t>PLACA</t>
   </si>
@@ -111,9 +111,6 @@
     <t>PRATA</t>
   </si>
   <si>
-    <t>NIP-8681</t>
-  </si>
-  <si>
     <t>NVB-8980</t>
   </si>
   <si>
@@ -141,13 +138,34 @@
     <t>PJP-4986</t>
   </si>
   <si>
-    <t>JUNHO</t>
-  </si>
-  <si>
     <t>NMR-9010</t>
   </si>
   <si>
     <t>NMR-8H77</t>
+  </si>
+  <si>
+    <t>NQQ-5716</t>
+  </si>
+  <si>
+    <t>NQQ-7787</t>
+  </si>
+  <si>
+    <t>HZA-7062</t>
+  </si>
+  <si>
+    <t>NWT-0A46</t>
+  </si>
+  <si>
+    <t>KLI-2790</t>
+  </si>
+  <si>
+    <t>HZA-6952</t>
+  </si>
+  <si>
+    <t>NQQ-3877</t>
+  </si>
+  <si>
+    <t>JULHO</t>
   </si>
 </sst>
 </file>
@@ -528,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,13 +579,13 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>8</v>
@@ -581,13 +599,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -601,13 +619,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
@@ -621,13 +639,13 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -641,13 +659,13 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>8</v>
@@ -661,13 +679,13 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>8</v>
@@ -681,13 +699,13 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>12</v>
@@ -701,13 +719,13 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>12</v>
@@ -721,13 +739,13 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -741,13 +759,13 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -761,13 +779,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>12</v>
@@ -781,13 +799,13 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>12</v>
@@ -801,13 +819,13 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>8</v>
@@ -821,13 +839,13 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>8</v>
@@ -841,13 +859,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -861,13 +879,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>12</v>
@@ -881,16 +899,16 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>9</v>
@@ -901,16 +919,16 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>11</v>
@@ -921,573 +939,573 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F25" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>11</v>
-      </c>
-      <c r="F26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" t="s">
-        <v>40</v>
-      </c>
-      <c r="D28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>41</v>
+      <c r="A29" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>8</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>15</v>
@@ -1501,13 +1519,13 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D49" s="2" t="s">
         <v>15</v>
@@ -1521,13 +1539,13 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>8</v>
@@ -1541,13 +1559,13 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>8</v>
@@ -1561,13 +1579,13 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>15</v>
@@ -1581,13 +1599,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>15</v>
@@ -1601,13 +1619,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
@@ -1621,13 +1639,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>8</v>
@@ -1641,19 +1659,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>23</v>
@@ -1661,19 +1679,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>23</v>
@@ -1681,213 +1699,213 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>39</v>
+      <c r="A60" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D63" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>12</v>
+        <v>48</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>15</v>
@@ -1896,18 +1914,18 @@
         <v>11</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>15</v>
@@ -1916,247 +1934,607 @@
         <v>9</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D74" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D74" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>35</v>
+      <c r="A76" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D76" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D76" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D77" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D77" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D80" s="3" t="s">
         <v>12</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F81" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="2" t="s">
         <v>36</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
